--- a/DNN_constant_singleTrain.xlsx
+++ b/DNN_constant_singleTrain.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\MThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurens\Documents\MThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Mean Weights Xs</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>TW_CP</t>
+  </si>
+  <si>
+    <t>TW_DNN</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TW</c:v>
+                  <c:v>TW_DNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4224,7 +4227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TW</c:v>
+                  <c:v>TW_DNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7419,8 +7422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C50" activeCellId="1" sqref="S1:S1048576 C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7437,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -7483,6 +7486,10 @@
       <c r="E2" s="2">
         <v>27150</v>
       </c>
+      <c r="G2">
+        <f>AVERAGE(C:C)</f>
+        <v>1.3143432625185825</v>
+      </c>
       <c r="H2">
         <f>AVERAGE(C:C)</f>
         <v>1.3143432625185825</v>
@@ -7521,6 +7528,10 @@
       </c>
       <c r="E3" s="2">
         <v>27181</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.STDEV.S(C:C)</f>
+        <v>0.27004347238727677</v>
       </c>
       <c r="I3">
         <f>AVERAGE(A:A)</f>
